--- a/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>95.08724992651892</v>
+        <v>93.63113038439971</v>
       </c>
       <c r="D2" t="n">
-        <v>13.61233306617719</v>
+        <v>13.59682295932507</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.65839679937875</v>
+        <v>91.23347201655587</v>
       </c>
       <c r="D3" t="n">
-        <v>15.47915714665852</v>
+        <v>14.17681889637363</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.65962626738501</v>
+        <v>90.4724163205121</v>
       </c>
       <c r="D4" t="n">
-        <v>14.68951565084005</v>
+        <v>13.01383448286569</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.29127291371165</v>
+        <v>91.0371023520575</v>
       </c>
       <c r="D5" t="n">
-        <v>16.70875192147787</v>
+        <v>14.14181736869462</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.10281194074807</v>
+        <v>89.64986125945798</v>
       </c>
       <c r="D6" t="n">
-        <v>14.39361852019487</v>
+        <v>13.16275253243223</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.78497854674248</v>
+        <v>86.44862020278396</v>
       </c>
       <c r="D7" t="n">
-        <v>13.61924482880295</v>
+        <v>12.1178169110502</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.45082930915493</v>
+        <v>86.78741226380048</v>
       </c>
       <c r="D8" t="n">
-        <v>14.0870826416946</v>
+        <v>14.71270890756147</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.34137277564665</v>
+        <v>84.93144800013256</v>
       </c>
       <c r="D9" t="n">
-        <v>15.08198697294052</v>
+        <v>14.57297997433268</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.9228331224077</v>
+        <v>83.34064159202663</v>
       </c>
       <c r="D10" t="n">
-        <v>12.11721909073111</v>
+        <v>10.52604883223561</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.02754514553595</v>
+        <v>84.99772301565785</v>
       </c>
       <c r="D11" t="n">
-        <v>15.85736759138106</v>
+        <v>13.51295696219404</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.30112771845312</v>
+        <v>81.94717199315585</v>
       </c>
       <c r="D12" t="n">
-        <v>13.79475083509281</v>
+        <v>13.67646918000634</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.88828608544354</v>
+        <v>82.30477480659441</v>
       </c>
       <c r="D13" t="n">
-        <v>12.5615355691938</v>
+        <v>12.3587611269783</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>82.25680309115938</v>
+        <v>78.54907383513272</v>
       </c>
       <c r="D14" t="n">
-        <v>13.92632042691144</v>
+        <v>14.80228679766239</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.78615858890953</v>
+        <v>77.52250218250515</v>
       </c>
       <c r="D15" t="n">
-        <v>13.49841854830693</v>
+        <v>13.44413212575242</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.72562609046163</v>
+        <v>77.03180931228334</v>
       </c>
       <c r="D16" t="n">
-        <v>13.92517022889197</v>
+        <v>12.16875994613837</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.36014831169361</v>
+        <v>77.11998379791962</v>
       </c>
       <c r="D17" t="n">
-        <v>14.43897275526395</v>
+        <v>14.13697752331787</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.90124078406713</v>
+        <v>78.70546710681649</v>
       </c>
       <c r="D18" t="n">
-        <v>14.40041232712517</v>
+        <v>11.68187641206881</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>77.37022012362927</v>
+        <v>74.7445887238347</v>
       </c>
       <c r="D19" t="n">
-        <v>14.45323134399283</v>
+        <v>12.15727936924433</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.47703108240059</v>
+        <v>76.10042957131606</v>
       </c>
       <c r="D20" t="n">
-        <v>14.3518597036589</v>
+        <v>12.04545250963241</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.48849037036852</v>
+        <v>73.02852685681709</v>
       </c>
       <c r="D21" t="n">
-        <v>14.35468677953296</v>
+        <v>13.90109442858583</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.89467526255038</v>
+        <v>71.45266942447621</v>
       </c>
       <c r="D22" t="n">
-        <v>14.24491761210268</v>
+        <v>12.30166262901827</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>75.17760161906841</v>
+        <v>69.75208817609293</v>
       </c>
       <c r="D23" t="n">
-        <v>14.03569553727771</v>
+        <v>14.9494296254143</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.16788609431086</v>
+        <v>69.90325860319047</v>
       </c>
       <c r="D24" t="n">
-        <v>13.19157854893498</v>
+        <v>12.80502104523216</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.77361459013036</v>
+        <v>67.1055544343223</v>
       </c>
       <c r="D25" t="n">
-        <v>15.34490450334286</v>
+        <v>13.27723503476161</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.65428074199765</v>
+        <v>66.42529621717502</v>
       </c>
       <c r="D26" t="n">
-        <v>15.61092144473934</v>
+        <v>13.24333869399761</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.57471417990659</v>
+        <v>67.51160341612287</v>
       </c>
       <c r="D27" t="n">
-        <v>13.94991186108296</v>
+        <v>13.02078730545094</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.44180594262454</v>
+        <v>63.08551006791298</v>
       </c>
       <c r="D28" t="n">
-        <v>14.77411606564748</v>
+        <v>13.51052037464296</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.54370073906662</v>
+        <v>63.67493799174446</v>
       </c>
       <c r="D29" t="n">
-        <v>14.29510376065265</v>
+        <v>13.87893314002899</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.56054981077479</v>
+        <v>63.82186171324939</v>
       </c>
       <c r="D30" t="n">
-        <v>14.5406453016751</v>
+        <v>13.26556588496989</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>65.0298436241299</v>
+        <v>65.0809175891967</v>
       </c>
       <c r="D31" t="n">
-        <v>14.3365774604828</v>
+        <v>13.46162998405803</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.13010223248202</v>
+        <v>61.87540773532257</v>
       </c>
       <c r="D32" t="n">
-        <v>13.5060845633785</v>
+        <v>12.73966063103364</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.89233310861189</v>
+        <v>58.38899464002056</v>
       </c>
       <c r="D33" t="n">
-        <v>14.38809775676889</v>
+        <v>15.1368953083101</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.52206487079391</v>
+        <v>59.44045151474575</v>
       </c>
       <c r="D34" t="n">
-        <v>11.94815585393065</v>
+        <v>12.5989818848645</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.85564245712668</v>
+        <v>55.59391441495915</v>
       </c>
       <c r="D35" t="n">
-        <v>14.12134820244561</v>
+        <v>12.51342228078663</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.89923796146682</v>
+        <v>57.52022096678095</v>
       </c>
       <c r="D36" t="n">
-        <v>12.02673441576044</v>
+        <v>13.37346061290779</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.29575541253095</v>
+        <v>54.92471766046901</v>
       </c>
       <c r="D37" t="n">
-        <v>14.78107413580951</v>
+        <v>13.28129387850215</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.89536012363644</v>
+        <v>53.56126335291571</v>
       </c>
       <c r="D38" t="n">
-        <v>13.01679230504532</v>
+        <v>13.41194301858966</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.73406305901622</v>
+        <v>52.22512142723977</v>
       </c>
       <c r="D39" t="n">
-        <v>14.2017837516482</v>
+        <v>14.31730218693412</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.43074988858404</v>
+        <v>49.28762637228824</v>
       </c>
       <c r="D40" t="n">
-        <v>13.47638026696787</v>
+        <v>16.2314131771145</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.4903542097571</v>
+        <v>50.99152172812206</v>
       </c>
       <c r="D41" t="n">
-        <v>13.68624417046536</v>
+        <v>12.25714259648713</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.67894246492763</v>
+        <v>49.11788386802667</v>
       </c>
       <c r="D42" t="n">
-        <v>12.88955760003634</v>
+        <v>13.03373175525925</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.42438723633042</v>
+        <v>48.2468532222918</v>
       </c>
       <c r="D43" t="n">
-        <v>14.72178118808237</v>
+        <v>13.30227437422627</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.62057467269072</v>
+        <v>49.89672808819271</v>
       </c>
       <c r="D44" t="n">
-        <v>13.71210466569702</v>
+        <v>14.76584966671873</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.00847973847255</v>
+        <v>45.25877708099117</v>
       </c>
       <c r="D45" t="n">
-        <v>12.6919098349777</v>
+        <v>14.97215351533684</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.43087115875061</v>
+        <v>45.66838776472969</v>
       </c>
       <c r="D46" t="n">
-        <v>14.10036836982898</v>
+        <v>13.60922556892353</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.55993554871493</v>
+        <v>45.34912132725904</v>
       </c>
       <c r="D47" t="n">
-        <v>14.3202857495437</v>
+        <v>12.50491025255092</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.97687512820916</v>
+        <v>43.62332907182816</v>
       </c>
       <c r="D48" t="n">
-        <v>14.15082138302058</v>
+        <v>12.99478664417382</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.54642312895552</v>
+        <v>40.65803389234702</v>
       </c>
       <c r="D49" t="n">
-        <v>14.07791447027336</v>
+        <v>11.70389115990918</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.52207885497226</v>
+        <v>41.21537467997725</v>
       </c>
       <c r="D50" t="n">
-        <v>14.32844052716951</v>
+        <v>12.6293126629018</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.02488019607978</v>
+        <v>41.42729705387581</v>
       </c>
       <c r="D51" t="n">
-        <v>13.53660508128353</v>
+        <v>13.18109510160634</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.02377772701139</v>
+        <v>39.84545607878775</v>
       </c>
       <c r="D52" t="n">
-        <v>13.59103630326131</v>
+        <v>14.25339495886147</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.87404040781382</v>
+        <v>37.93572819887405</v>
       </c>
       <c r="D53" t="n">
-        <v>13.39982304024615</v>
+        <v>11.72037451820427</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.90712566136903</v>
+        <v>37.05428469316295</v>
       </c>
       <c r="D54" t="n">
-        <v>13.55680853770775</v>
+        <v>13.76077418203832</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.03826903552386</v>
+        <v>38.35065270696302</v>
       </c>
       <c r="D55" t="n">
-        <v>13.91681002806185</v>
+        <v>13.65698461607951</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.55988725210329</v>
+        <v>35.31464094847169</v>
       </c>
       <c r="D56" t="n">
-        <v>13.53986443969621</v>
+        <v>12.64146832352158</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.33749735566207</v>
+        <v>35.49700547472846</v>
       </c>
       <c r="D57" t="n">
-        <v>14.61518237007984</v>
+        <v>16.0378545066869</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>36.80557063590935</v>
+        <v>32.18643925373223</v>
       </c>
       <c r="D58" t="n">
-        <v>13.73959980170383</v>
+        <v>12.68759621651549</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.55695873788558</v>
+        <v>34.26064891176905</v>
       </c>
       <c r="D59" t="n">
-        <v>13.42891778791279</v>
+        <v>12.2361754893388</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.60227932757238</v>
+        <v>32.93521639588975</v>
       </c>
       <c r="D60" t="n">
-        <v>12.59995648147429</v>
+        <v>12.56485814444389</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.29538790636933</v>
+        <v>31.86479777018936</v>
       </c>
       <c r="D61" t="n">
-        <v>15.01373066854363</v>
+        <v>12.37635474954478</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.71511784777176</v>
+        <v>31.64733578813896</v>
       </c>
       <c r="D62" t="n">
-        <v>12.13961493899863</v>
+        <v>12.03189507438457</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.61189821164704</v>
+        <v>28.67442085208092</v>
       </c>
       <c r="D63" t="n">
-        <v>12.94046877002481</v>
+        <v>12.44031402851275</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.848160764997</v>
+        <v>27.4947085844477</v>
       </c>
       <c r="D64" t="n">
-        <v>13.92342756679045</v>
+        <v>13.50559818334203</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>29.57856050927523</v>
+        <v>29.10836627155871</v>
       </c>
       <c r="D65" t="n">
-        <v>11.37114936690367</v>
+        <v>14.69285595638727</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.0770335078955</v>
+        <v>27.58419470103878</v>
       </c>
       <c r="D66" t="n">
-        <v>13.22524987358678</v>
+        <v>12.34258941054047</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.72233164245432</v>
+        <v>24.41976969326005</v>
       </c>
       <c r="D67" t="n">
-        <v>13.62148809373776</v>
+        <v>13.44054355819952</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>26.32592123378785</v>
+        <v>25.04620611564049</v>
       </c>
       <c r="D68" t="n">
-        <v>12.86092633431903</v>
+        <v>10.79429145813415</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>25.29900649396285</v>
+        <v>25.03869354551477</v>
       </c>
       <c r="D69" t="n">
-        <v>13.60412346016978</v>
+        <v>13.06428990955016</v>
       </c>
     </row>
   </sheetData>
